--- a/Jogos_da_Semana_FlashScore_2025-04-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-09.xlsx
@@ -805,7 +805,7 @@
         <v>2</v>
       </c>
       <c r="S3" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="T3" t="n">
         <v>7</v>
@@ -927,7 +927,7 @@
         <v>2</v>
       </c>
       <c r="S4" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="T4" t="n">
         <v>6.5</v>
@@ -1013,7 +1013,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H5" t="n">
         <v>4.1</v>
@@ -1034,10 +1034,10 @@
         <v>3.75</v>
       </c>
       <c r="N5" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O5" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
         <v>1.36</v>
@@ -1046,10 +1046,10 @@
         <v>3</v>
       </c>
       <c r="R5" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S5" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T5" t="n">
         <v>7</v>
@@ -1262,10 +1262,10 @@
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="S7" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="T7" t="n">
         <v>7.2</v>
@@ -1372,7 +1372,7 @@
         <v>4.15</v>
       </c>
       <c r="N8" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="O8" t="n">
         <v>2.25</v>
@@ -1473,13 +1473,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="H9" t="n">
         <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J9" t="n">
         <v>1.05</v>
@@ -1491,37 +1491,37 @@
         <v>1.24</v>
       </c>
       <c r="M9" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="N9" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O9" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P9" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="R9" t="n">
         <v>1.65</v>
       </c>
       <c r="S9" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="T9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V9" t="n">
         <v>8.5</v>
       </c>
       <c r="W9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X9" t="n">
         <v>15</v>
@@ -1622,10 +1622,10 @@
         <v>2.15</v>
       </c>
       <c r="P10" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="R10" t="n">
         <v>1.65</v>
@@ -1869,7 +1869,7 @@
         <v>1.42</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="R12" t="n">
         <v>1.65</v>
@@ -1961,37 +1961,37 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="H13" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I13" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J13" t="n">
         <v>1.08</v>
       </c>
       <c r="K13" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M13" t="n">
-        <v>2.85</v>
+        <v>2.77</v>
       </c>
       <c r="N13" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O13" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P13" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="R13" t="n">
         <v>1.91</v>
@@ -2003,28 +2003,28 @@
         <v>6.3</v>
       </c>
       <c r="U13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V13" t="n">
         <v>8.75</v>
       </c>
       <c r="W13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="X13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y13" t="n">
         <v>32</v>
       </c>
       <c r="Z13" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AA13" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AB13" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC13" t="n">
         <v>90</v>
@@ -2033,19 +2033,19 @@
         <v>800</v>
       </c>
       <c r="AE13" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AF13" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG13" t="n">
         <v>12.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AI13" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AJ13" t="n">
         <v>45</v>
@@ -2110,13 +2110,13 @@
         <v>2.15</v>
       </c>
       <c r="P14" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="Q14" t="n">
         <v>3.4</v>
       </c>
       <c r="R14" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S14" t="n">
         <v>2.1</v>
@@ -2329,7 +2329,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H17" t="n">
         <v>3.25</v>
@@ -2362,7 +2362,7 @@
         <v>2.75</v>
       </c>
       <c r="R17" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S17" t="n">
         <v>2</v>
@@ -2451,7 +2451,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="H18" t="n">
         <v>5</v>
@@ -2484,10 +2484,10 @@
         <v>3.75</v>
       </c>
       <c r="R18" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S18" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T18" t="n">
         <v>9</v>
@@ -2573,7 +2573,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="H19" t="n">
         <v>3.6</v>
@@ -2588,7 +2588,7 @@
         <v>8</v>
       </c>
       <c r="L19" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M19" t="n">
         <v>3.7</v>
@@ -2603,13 +2603,13 @@
         <v>1.36</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="R19" t="n">
         <v>1.65</v>
       </c>
       <c r="S19" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T19" t="n">
         <v>8.5</v>
@@ -2728,7 +2728,7 @@
         <v>2.75</v>
       </c>
       <c r="R20" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S20" t="n">
         <v>2</v>
@@ -2879,55 +2879,55 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="H22" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="I22" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="J22" t="n">
         <v>1.06</v>
       </c>
       <c r="K22" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M22" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N22" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="O22" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="P22" t="n">
         <v>1.42</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="R22" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S22" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="T22" t="n">
         <v>6.3</v>
       </c>
       <c r="U22" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="V22" t="n">
         <v>8.25</v>
       </c>
       <c r="W22" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="X22" t="n">
         <v>13</v>
@@ -2936,13 +2936,13 @@
         <v>29</v>
       </c>
       <c r="Z22" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="AB22" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC22" t="n">
         <v>90</v>
@@ -2951,22 +2951,22 @@
         <v>800</v>
       </c>
       <c r="AE22" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF22" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH22" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AI22" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ22" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23">

--- a/Jogos_da_Semana_FlashScore_2025-04-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-09.xlsx
@@ -790,10 +790,10 @@
         <v>2.75</v>
       </c>
       <c r="N3" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="O3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P3" t="n">
         <v>1.5</v>
@@ -805,7 +805,7 @@
         <v>2</v>
       </c>
       <c r="S3" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="T3" t="n">
         <v>7</v>
@@ -927,7 +927,7 @@
         <v>2</v>
       </c>
       <c r="S4" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="T4" t="n">
         <v>6.5</v>
@@ -1022,37 +1022,37 @@
         <v>4.75</v>
       </c>
       <c r="J5" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L5" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N5" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O5" t="n">
         <v>2</v>
       </c>
       <c r="P5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q5" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R5" t="n">
         <v>1.8</v>
       </c>
       <c r="S5" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U5" t="n">
         <v>8</v>
@@ -1067,13 +1067,13 @@
         <v>13</v>
       </c>
       <c r="Y5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB5" t="n">
         <v>17</v>
@@ -1082,13 +1082,13 @@
         <v>51</v>
       </c>
       <c r="AD5" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE5" t="n">
         <v>13</v>
       </c>
       <c r="AF5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG5" t="n">
         <v>15</v>
@@ -1372,7 +1372,7 @@
         <v>4.15</v>
       </c>
       <c r="N8" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="O8" t="n">
         <v>2.25</v>
@@ -1473,7 +1473,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="H9" t="n">
         <v>3.6</v>
@@ -1524,7 +1524,7 @@
         <v>15</v>
       </c>
       <c r="X9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y9" t="n">
         <v>23</v>
@@ -1595,7 +1595,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="H10" t="n">
         <v>3.8</v>
@@ -1717,7 +1717,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="H11" t="n">
         <v>3.5</v>
@@ -1848,37 +1848,37 @@
         <v>2.8</v>
       </c>
       <c r="J12" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K12" t="n">
-        <v>7.9</v>
+        <v>7.3</v>
       </c>
       <c r="L12" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="M12" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="N12" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="O12" t="n">
         <v>1.88</v>
       </c>
-      <c r="O12" t="n">
-        <v>1.98</v>
-      </c>
       <c r="P12" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.77</v>
+        <v>2.87</v>
       </c>
       <c r="R12" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="S12" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U12" t="n">
         <v>12</v>
@@ -1893,10 +1893,10 @@
         <v>19</v>
       </c>
       <c r="Y12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA12" t="n">
         <v>6.5</v>
@@ -1908,10 +1908,10 @@
         <v>41</v>
       </c>
       <c r="AD12" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF12" t="n">
         <v>15</v>
@@ -1961,19 +1961,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.02</v>
+        <v>2.22</v>
       </c>
       <c r="H13" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="I13" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="J13" t="n">
         <v>1.08</v>
       </c>
       <c r="K13" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="L13" t="n">
         <v>1.39</v>
@@ -1994,61 +1994,61 @@
         <v>2.42</v>
       </c>
       <c r="R13" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="S13" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T13" t="n">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="U13" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="V13" t="n">
         <v>9</v>
       </c>
-      <c r="V13" t="n">
-        <v>8.75</v>
-      </c>
       <c r="W13" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="X13" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="Y13" t="n">
         <v>32</v>
       </c>
       <c r="Z13" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AA13" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AB13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC13" t="n">
         <v>90</v>
       </c>
       <c r="AD13" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AE13" t="n">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="AF13" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="AH13" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AI13" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AJ13" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
@@ -2204,36 +2204,88 @@
           <t>FK Liepaja</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.95</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.83</v>
+      </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="inlineStr"/>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="T15" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="U15" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>7</v>
+      </c>
+      <c r="W15" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="X15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2266,36 +2318,84 @@
           <t>Tukums 2000</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H16" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>20</v>
+      </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
+      <c r="N16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="O16" t="n">
+        <v>3.3</v>
+      </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="inlineStr"/>
-      <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="T16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U16" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="W16" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="X16" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>250</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>300</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2335,40 +2435,40 @@
         <v>3.25</v>
       </c>
       <c r="I17" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J17" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L17" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M17" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N17" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="P17" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R17" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="S17" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U17" t="n">
         <v>11</v>
@@ -2392,16 +2492,16 @@
         <v>6</v>
       </c>
       <c r="AB17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC17" t="n">
         <v>51</v>
       </c>
       <c r="AD17" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF17" t="n">
         <v>15</v>
@@ -2451,7 +2551,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="H18" t="n">
         <v>5</v>
@@ -2484,10 +2584,10 @@
         <v>3.75</v>
       </c>
       <c r="R18" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S18" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T18" t="n">
         <v>9</v>
@@ -2573,7 +2673,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="H19" t="n">
         <v>3.6</v>
@@ -2588,7 +2688,7 @@
         <v>8</v>
       </c>
       <c r="L19" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M19" t="n">
         <v>3.7</v>
@@ -2728,7 +2828,7 @@
         <v>2.75</v>
       </c>
       <c r="R20" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="S20" t="n">
         <v>2</v>
@@ -3010,16 +3110,16 @@
         <v>3.6</v>
       </c>
       <c r="J23" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L23" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M23" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N23" t="n">
         <v>2.1</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-09.xlsx
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="H5" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
         <v>1.04</v>
@@ -1085,7 +1085,7 @@
         <v>251</v>
       </c>
       <c r="AE5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
         <v>26</v>
@@ -1485,31 +1485,31 @@
         <v>1.05</v>
       </c>
       <c r="K9" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="M9" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="N9" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="R9" t="n">
         <v>1.7</v>
       </c>
-      <c r="O9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.65</v>
-      </c>
       <c r="S9" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T9" t="n">
         <v>8.5</v>
@@ -1717,25 +1717,25 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H11" t="n">
         <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K11" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="L11" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M11" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="N11" t="n">
         <v>1.73</v>
@@ -1747,7 +1747,7 @@
         <v>1.36</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="R11" t="n">
         <v>1.65</v>
@@ -1768,7 +1768,7 @@
         <v>15</v>
       </c>
       <c r="X11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y11" t="n">
         <v>23</v>
@@ -1789,19 +1789,19 @@
         <v>151</v>
       </c>
       <c r="AE11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH11" t="n">
         <v>41</v>
       </c>
       <c r="AI11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ11" t="n">
         <v>34</v>
@@ -1839,13 +1839,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H12" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J12" t="n">
         <v>1.07</v>
@@ -1860,10 +1860,10 @@
         <v>3.15</v>
       </c>
       <c r="N12" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="P12" t="n">
         <v>1.38</v>
@@ -1896,16 +1896,16 @@
         <v>29</v>
       </c>
       <c r="Z12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB12" t="n">
         <v>13</v>
       </c>
       <c r="AC12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD12" t="n">
         <v>201</v>
@@ -1926,7 +1926,7 @@
         <v>23</v>
       </c>
       <c r="AJ12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
@@ -2319,82 +2319,82 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="H16" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="I16" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="O16" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="n">
-        <v>2.31</v>
+        <v>2.44</v>
       </c>
       <c r="S16" t="n">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="T16" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U16" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="V16" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="W16" t="n">
         <v>5.6</v>
       </c>
       <c r="X16" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Z16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA16" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AC16" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD16" t="n">
         <v>600</v>
       </c>
       <c r="AE16" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AF16" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="AG16" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AH16" t="n">
         <v>101</v>
       </c>
       <c r="AI16" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="AJ16" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17">
@@ -2429,31 +2429,31 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I17" t="n">
         <v>3.25</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3.2</v>
       </c>
       <c r="J17" t="n">
         <v>1.07</v>
       </c>
       <c r="K17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M17" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N17" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O17" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P17" t="n">
         <v>1.44</v>
@@ -2462,13 +2462,13 @@
         <v>2.63</v>
       </c>
       <c r="R17" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S17" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U17" t="n">
         <v>11</v>
@@ -2480,13 +2480,13 @@
         <v>21</v>
       </c>
       <c r="X17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z17" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA17" t="n">
         <v>6</v>
@@ -2498,10 +2498,10 @@
         <v>51</v>
       </c>
       <c r="AD17" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF17" t="n">
         <v>15</v>
@@ -2513,10 +2513,10 @@
         <v>34</v>
       </c>
       <c r="AI17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18">
@@ -2795,19 +2795,19 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H20" t="n">
         <v>3.1</v>
       </c>
       <c r="I20" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J20" t="n">
         <v>1.06</v>
       </c>
       <c r="K20" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L20" t="n">
         <v>1.3</v>
@@ -2828,10 +2828,10 @@
         <v>2.75</v>
       </c>
       <c r="R20" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S20" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T20" t="n">
         <v>10</v>
@@ -2846,7 +2846,7 @@
         <v>34</v>
       </c>
       <c r="X20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y20" t="n">
         <v>34</v>
@@ -2861,7 +2861,7 @@
         <v>13</v>
       </c>
       <c r="AC20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD20" t="n">
         <v>201</v>
@@ -2870,16 +2870,16 @@
         <v>8</v>
       </c>
       <c r="AF20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG20" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ20" t="n">
         <v>29</v>
@@ -3122,10 +3122,10 @@
         <v>3</v>
       </c>
       <c r="N23" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O23" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P23" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-09.xlsx
@@ -775,13 +775,13 @@
         <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J3" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L3" t="n">
         <v>1.44</v>
@@ -796,10 +796,10 @@
         <v>1.57</v>
       </c>
       <c r="P3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R3" t="n">
         <v>2</v>
@@ -826,10 +826,10 @@
         <v>34</v>
       </c>
       <c r="Z3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB3" t="n">
         <v>17</v>
@@ -838,7 +838,7 @@
         <v>67</v>
       </c>
       <c r="AD3" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE3" t="n">
         <v>7.5</v>
@@ -1013,7 +1013,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H5" t="n">
         <v>4.2</v>
@@ -1476,10 +1476,10 @@
         <v>1.8</v>
       </c>
       <c r="H9" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I9" t="n">
         <v>3.6</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.7</v>
       </c>
       <c r="J9" t="n">
         <v>1.05</v>
@@ -1512,10 +1512,10 @@
         <v>2.05</v>
       </c>
       <c r="T9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V9" t="n">
         <v>8.5</v>
@@ -1524,7 +1524,7 @@
         <v>15</v>
       </c>
       <c r="X9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y9" t="n">
         <v>23</v>
@@ -1536,16 +1536,16 @@
         <v>7.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC9" t="n">
         <v>41</v>
       </c>
       <c r="AD9" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF9" t="n">
         <v>21</v>
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H12" t="n">
         <v>3.2</v>
@@ -1860,10 +1860,10 @@
         <v>3.15</v>
       </c>
       <c r="N12" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O12" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P12" t="n">
         <v>1.38</v>
@@ -1878,10 +1878,10 @@
         <v>2</v>
       </c>
       <c r="T12" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V12" t="n">
         <v>9.5</v>
@@ -1899,10 +1899,10 @@
         <v>9.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC12" t="n">
         <v>51</v>
@@ -2083,13 +2083,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I14" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J14" t="n">
         <v>1.03</v>
@@ -2110,22 +2110,22 @@
         <v>2.15</v>
       </c>
       <c r="P14" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R14" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S14" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T14" t="n">
         <v>8.5</v>
       </c>
       <c r="U14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V14" t="n">
         <v>8.5</v>
@@ -2134,7 +2134,7 @@
         <v>13</v>
       </c>
       <c r="X14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y14" t="n">
         <v>21</v>
@@ -2143,10 +2143,10 @@
         <v>15</v>
       </c>
       <c r="AA14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC14" t="n">
         <v>41</v>
@@ -2158,7 +2158,7 @@
         <v>15</v>
       </c>
       <c r="AF14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG14" t="n">
         <v>15</v>
@@ -2167,10 +2167,10 @@
         <v>51</v>
       </c>
       <c r="AI14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15">
@@ -2332,18 +2332,18 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="O16" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="n">
-        <v>2.44</v>
+        <v>2.41</v>
       </c>
       <c r="S16" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="T16" t="n">
         <v>10</v>
@@ -2441,7 +2441,7 @@
         <v>1.07</v>
       </c>
       <c r="K17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L17" t="n">
         <v>1.36</v>
@@ -2456,10 +2456,10 @@
         <v>1.67</v>
       </c>
       <c r="P17" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R17" t="n">
         <v>1.91</v>
@@ -2578,7 +2578,7 @@
         <v>2.5</v>
       </c>
       <c r="P18" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q18" t="n">
         <v>3.75</v>
@@ -2688,7 +2688,7 @@
         <v>8</v>
       </c>
       <c r="L19" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M19" t="n">
         <v>3.7</v>
@@ -2703,13 +2703,13 @@
         <v>1.36</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="R19" t="n">
         <v>1.65</v>
       </c>
       <c r="S19" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="T19" t="n">
         <v>8.5</v>
@@ -2807,7 +2807,7 @@
         <v>1.06</v>
       </c>
       <c r="K20" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>1.3</v>
@@ -2822,7 +2822,7 @@
         <v>1.83</v>
       </c>
       <c r="P20" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q20" t="n">
         <v>2.75</v>
@@ -3122,10 +3122,10 @@
         <v>3</v>
       </c>
       <c r="N23" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O23" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P23" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-09.xlsx
@@ -656,10 +656,10 @@
         <v>4.5</v>
       </c>
       <c r="J2" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L2" t="n">
         <v>1.33</v>
@@ -668,10 +668,10 @@
         <v>3.25</v>
       </c>
       <c r="N2" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O2" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P2" t="n">
         <v>1.44</v>
@@ -772,88 +772,88 @@
         <v>2.5</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J3" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="M3" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="N3" t="n">
-        <v>2.38</v>
+        <v>2.7</v>
       </c>
       <c r="O3" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P3" t="n">
         <v>1.57</v>
       </c>
-      <c r="P3" t="n">
-        <v>1.53</v>
-      </c>
       <c r="Q3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S3" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U3" t="n">
         <v>11</v>
       </c>
       <c r="V3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AA3" t="n">
         <v>6</v>
       </c>
       <c r="AB3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC3" t="n">
         <v>67</v>
       </c>
       <c r="AD3" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF3" t="n">
         <v>13</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI3" t="n">
         <v>29</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>26</v>
       </c>
       <c r="AJ3" t="n">
         <v>41</v>
@@ -906,22 +906,22 @@
         <v>10</v>
       </c>
       <c r="L4" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M4" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N4" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O4" t="n">
-        <v>1.83</v>
+        <v>1.68</v>
       </c>
       <c r="P4" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R4" t="n">
         <v>2</v>
@@ -930,7 +930,7 @@
         <v>1.73</v>
       </c>
       <c r="T4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U4" t="n">
         <v>7</v>
@@ -954,13 +954,13 @@
         <v>7.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC4" t="n">
         <v>67</v>
       </c>
       <c r="AD4" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE4" t="n">
         <v>12</v>
@@ -1016,46 +1016,46 @@
         <v>1.62</v>
       </c>
       <c r="H5" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I5" t="n">
         <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L5" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N5" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O5" t="n">
         <v>2</v>
       </c>
       <c r="P5" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R5" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S5" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T5" t="n">
+        <v>7</v>
+      </c>
+      <c r="U5" t="n">
         <v>7.5</v>
-      </c>
-      <c r="U5" t="n">
-        <v>8</v>
       </c>
       <c r="V5" t="n">
         <v>8.5</v>
@@ -1067,13 +1067,13 @@
         <v>13</v>
       </c>
       <c r="Y5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB5" t="n">
         <v>17</v>
@@ -1085,13 +1085,13 @@
         <v>251</v>
       </c>
       <c r="AE5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF5" t="n">
         <v>26</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH5" t="n">
         <v>51</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="H6" t="n">
-        <v>4.35</v>
+        <v>4.6</v>
       </c>
       <c r="I6" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -1154,55 +1154,55 @@
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
-        <v>7.6</v>
+        <v>8.5</v>
       </c>
       <c r="U6" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="V6" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="W6" t="n">
         <v>8.5</v>
       </c>
       <c r="X6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA6" t="n">
         <v>8.75</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>8</v>
       </c>
       <c r="AB6" t="n">
         <v>13</v>
       </c>
       <c r="AC6" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AD6" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AE6" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AF6" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH6" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AI6" t="n">
         <v>45</v>
       </c>
       <c r="AJ6" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
@@ -1262,10 +1262,10 @@
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="S7" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="T7" t="n">
         <v>7.2</v>
@@ -1357,7 +1357,7 @@
         <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J8" t="n">
         <v>1.04</v>
@@ -1366,10 +1366,10 @@
         <v>9.25</v>
       </c>
       <c r="L8" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="M8" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="N8" t="n">
         <v>1.62</v>
@@ -1384,16 +1384,16 @@
         <v>3.15</v>
       </c>
       <c r="R8" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S8" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="T8" t="n">
         <v>10</v>
       </c>
       <c r="U8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V8" t="n">
         <v>9</v>
@@ -1417,7 +1417,7 @@
         <v>12</v>
       </c>
       <c r="AC8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD8" t="n">
         <v>126</v>
@@ -1432,13 +1432,13 @@
         <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI8" t="n">
         <v>23</v>
       </c>
       <c r="AJ8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
@@ -1479,7 +1479,7 @@
         <v>3.8</v>
       </c>
       <c r="I9" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J9" t="n">
         <v>1.05</v>
@@ -1500,7 +1500,7 @@
         <v>2.05</v>
       </c>
       <c r="P9" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="Q9" t="n">
         <v>2.92</v>
@@ -1616,10 +1616,10 @@
         <v>4.05</v>
       </c>
       <c r="N10" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O10" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P10" t="n">
         <v>1.34</v>
@@ -1717,25 +1717,25 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H11" t="n">
         <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J11" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K11" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="L11" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M11" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="N11" t="n">
         <v>1.73</v>
@@ -1750,16 +1750,16 @@
         <v>3</v>
       </c>
       <c r="R11" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S11" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T11" t="n">
         <v>8.5</v>
       </c>
       <c r="U11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V11" t="n">
         <v>8.5</v>
@@ -1839,10 +1839,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I12" t="n">
         <v>2.88</v>
@@ -1851,37 +1851,37 @@
         <v>1.07</v>
       </c>
       <c r="K12" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M12" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="N12" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O12" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P12" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="R12" t="n">
         <v>1.72</v>
       </c>
       <c r="S12" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T12" t="n">
         <v>8</v>
       </c>
       <c r="U12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V12" t="n">
         <v>9.5</v>
@@ -1890,7 +1890,7 @@
         <v>23</v>
       </c>
       <c r="X12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y12" t="n">
         <v>29</v>
@@ -1899,16 +1899,16 @@
         <v>9.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC12" t="n">
         <v>51</v>
       </c>
       <c r="AD12" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE12" t="n">
         <v>9.5</v>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1964,16 +1964,16 @@
         <v>2.22</v>
       </c>
       <c r="H13" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="I13" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
         <v>1.08</v>
       </c>
       <c r="K13" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="L13" t="n">
         <v>1.39</v>
@@ -1994,19 +1994,19 @@
         <v>2.42</v>
       </c>
       <c r="R13" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="S13" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="T13" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="U13" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="V13" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="W13" t="n">
         <v>22</v>
@@ -2015,28 +2015,28 @@
         <v>19.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z13" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AA13" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AB13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AC13" t="n">
         <v>90</v>
       </c>
       <c r="AD13" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE13" t="n">
         <v>8.25</v>
       </c>
       <c r="AF13" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG13" t="n">
         <v>11.25</v>
@@ -2045,7 +2045,7 @@
         <v>40</v>
       </c>
       <c r="AI13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ13" t="n">
         <v>40</v>
@@ -2083,19 +2083,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H14" t="n">
         <v>4.1</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J14" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L14" t="n">
         <v>1.2</v>
@@ -2116,31 +2116,31 @@
         <v>3.25</v>
       </c>
       <c r="R14" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S14" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T14" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U14" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V14" t="n">
         <v>8.5</v>
       </c>
       <c r="W14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X14" t="n">
         <v>12</v>
       </c>
       <c r="Y14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA14" t="n">
         <v>8</v>
@@ -2152,16 +2152,16 @@
         <v>41</v>
       </c>
       <c r="AD14" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF14" t="n">
         <v>29</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH14" t="n">
         <v>51</v>
@@ -2322,17 +2322,17 @@
         <v>1.07</v>
       </c>
       <c r="H16" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="I16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="O16" t="n">
         <v>3.55</v>
@@ -2340,37 +2340,37 @@
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="n">
-        <v>2.41</v>
+        <v>2.24</v>
       </c>
       <c r="S16" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="T16" t="n">
         <v>10</v>
       </c>
       <c r="U16" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="V16" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="W16" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="X16" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="Y16" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Z16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA16" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AB16" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC16" t="n">
         <v>120</v>
@@ -2391,7 +2391,7 @@
         <v>101</v>
       </c>
       <c r="AI16" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AJ16" t="n">
         <v>200</v>
@@ -2456,10 +2456,10 @@
         <v>1.67</v>
       </c>
       <c r="P17" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R17" t="n">
         <v>1.91</v>
@@ -2551,13 +2551,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="H18" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J18" t="n">
         <v>1.03</v>
@@ -2584,10 +2584,10 @@
         <v>3.75</v>
       </c>
       <c r="R18" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S18" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T18" t="n">
         <v>9</v>
@@ -2599,7 +2599,7 @@
         <v>9</v>
       </c>
       <c r="W18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X18" t="n">
         <v>11</v>
@@ -2626,7 +2626,7 @@
         <v>26</v>
       </c>
       <c r="AF18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG18" t="n">
         <v>26</v>
@@ -2673,37 +2673,37 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I19" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="J19" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K19" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="L19" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M19" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="N19" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O19" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P19" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="R19" t="n">
         <v>1.65</v>
@@ -2715,7 +2715,7 @@
         <v>8.5</v>
       </c>
       <c r="U19" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V19" t="n">
         <v>8.5</v>
@@ -2724,7 +2724,7 @@
         <v>15</v>
       </c>
       <c r="X19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y19" t="n">
         <v>23</v>
@@ -2733,10 +2733,10 @@
         <v>13</v>
       </c>
       <c r="AA19" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC19" t="n">
         <v>41</v>
@@ -2745,19 +2745,19 @@
         <v>151</v>
       </c>
       <c r="AE19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ19" t="n">
         <v>34</v>
@@ -2795,13 +2795,13 @@
         </is>
       </c>
       <c r="G20" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H20" t="n">
         <v>3.25</v>
       </c>
-      <c r="H20" t="n">
-        <v>3.1</v>
-      </c>
       <c r="I20" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="J20" t="n">
         <v>1.06</v>
@@ -2834,55 +2834,55 @@
         <v>1.91</v>
       </c>
       <c r="T20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X20" t="n">
         <v>29</v>
       </c>
       <c r="Y20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z20" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC20" t="n">
         <v>51</v>
       </c>
       <c r="AD20" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF20" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG20" t="n">
         <v>9</v>
       </c>
       <c r="AH20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI20" t="n">
         <v>17</v>
       </c>
       <c r="AJ20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
@@ -2979,76 +2979,76 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="H22" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="I22" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J22" t="n">
         <v>1.06</v>
       </c>
       <c r="K22" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="L22" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M22" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N22" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="O22" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="P22" t="n">
         <v>1.42</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="R22" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S22" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="T22" t="n">
         <v>6.3</v>
       </c>
       <c r="U22" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="V22" t="n">
         <v>8.25</v>
       </c>
       <c r="W22" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="X22" t="n">
         <v>13</v>
       </c>
       <c r="Y22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z22" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AA22" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="AB22" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC22" t="n">
         <v>90</v>
       </c>
       <c r="AD22" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AE22" t="n">
         <v>14</v>
@@ -3057,7 +3057,7 @@
         <v>32</v>
       </c>
       <c r="AG22" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH22" t="n">
         <v>110</v>
@@ -3066,7 +3066,7 @@
         <v>60</v>
       </c>
       <c r="AJ22" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23">
@@ -3101,13 +3101,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H23" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I23" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J23" t="n">
         <v>1.07</v>
@@ -3143,16 +3143,16 @@
         <v>7</v>
       </c>
       <c r="U23" t="n">
+        <v>10</v>
+      </c>
+      <c r="V23" t="n">
         <v>9.5</v>
       </c>
-      <c r="V23" t="n">
-        <v>9</v>
-      </c>
       <c r="W23" t="n">
+        <v>21</v>
+      </c>
+      <c r="X23" t="n">
         <v>19</v>
-      </c>
-      <c r="X23" t="n">
-        <v>17</v>
       </c>
       <c r="Y23" t="n">
         <v>29</v>
@@ -3161,7 +3161,7 @@
         <v>8.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB23" t="n">
         <v>15</v>
@@ -3179,10 +3179,10 @@
         <v>17</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI23" t="n">
         <v>29</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-09.xlsx
@@ -668,10 +668,10 @@
         <v>3.25</v>
       </c>
       <c r="N2" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O2" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P2" t="n">
         <v>1.44</v>
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
         <v>1.11</v>
@@ -790,10 +790,10 @@
         <v>2.5</v>
       </c>
       <c r="N3" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="O3" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="P3" t="n">
         <v>1.57</v>
@@ -814,13 +814,13 @@
         <v>11</v>
       </c>
       <c r="V3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y3" t="n">
         <v>41</v>
@@ -912,10 +912,10 @@
         <v>3.2</v>
       </c>
       <c r="N4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="P4" t="n">
         <v>1.44</v>
@@ -1028,16 +1028,16 @@
         <v>11</v>
       </c>
       <c r="L5" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N5" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P5" t="n">
         <v>1.36</v>
@@ -1135,10 +1135,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="H6" t="n">
-        <v>4.6</v>
+        <v>4.45</v>
       </c>
       <c r="I6" t="n">
         <v>6.4</v>
@@ -1160,31 +1160,31 @@
         <v>7.2</v>
       </c>
       <c r="V6" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="W6" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="X6" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Y6" t="n">
         <v>15.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA6" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AD6" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AE6" t="n">
         <v>21</v>
@@ -1240,10 +1240,10 @@
         <v>1.29</v>
       </c>
       <c r="H7" t="n">
-        <v>4.55</v>
+        <v>4.7</v>
       </c>
       <c r="I7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -1262,19 +1262,19 @@
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="S7" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="T7" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="U7" t="n">
         <v>6.2</v>
       </c>
       <c r="V7" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="W7" t="n">
         <v>7.4</v>
@@ -1283,34 +1283,34 @@
         <v>8.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Z7" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AA7" t="n">
         <v>8.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AD7" t="n">
         <v>300</v>
       </c>
       <c r="AE7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF7" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG7" t="n">
         <v>21</v>
       </c>
       <c r="AH7" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AI7" t="n">
         <v>70</v>
@@ -1357,7 +1357,7 @@
         <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J8" t="n">
         <v>1.04</v>
@@ -1369,31 +1369,31 @@
         <v>1.2</v>
       </c>
       <c r="M8" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="N8" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P8" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="S8" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="T8" t="n">
         <v>10</v>
       </c>
       <c r="U8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V8" t="n">
         <v>9</v>
@@ -1417,16 +1417,16 @@
         <v>12</v>
       </c>
       <c r="AC8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD8" t="n">
         <v>126</v>
       </c>
       <c r="AE8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG8" t="n">
         <v>12</v>
@@ -1717,13 +1717,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H11" t="n">
         <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
         <v>1.05</v>
@@ -1759,7 +1759,7 @@
         <v>8.5</v>
       </c>
       <c r="U11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V11" t="n">
         <v>8.5</v>
@@ -1839,10 +1839,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H12" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I12" t="n">
         <v>2.88</v>
@@ -1860,28 +1860,28 @@
         <v>3.2</v>
       </c>
       <c r="N12" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O12" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P12" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="R12" t="n">
         <v>1.72</v>
       </c>
       <c r="S12" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="T12" t="n">
         <v>8</v>
       </c>
       <c r="U12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V12" t="n">
         <v>9.5</v>
@@ -1890,7 +1890,7 @@
         <v>23</v>
       </c>
       <c r="X12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y12" t="n">
         <v>29</v>
@@ -1899,16 +1899,16 @@
         <v>9.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC12" t="n">
         <v>51</v>
       </c>
       <c r="AD12" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE12" t="n">
         <v>9.5</v>
@@ -1967,7 +1967,7 @@
         <v>3.15</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J13" t="n">
         <v>1.08</v>
@@ -1982,10 +1982,10 @@
         <v>2.77</v>
       </c>
       <c r="N13" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="O13" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P13" t="n">
         <v>1.5</v>
@@ -2003,7 +2003,7 @@
         <v>6.8</v>
       </c>
       <c r="U13" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="V13" t="n">
         <v>9.25</v>
@@ -2024,10 +2024,10 @@
         <v>6.2</v>
       </c>
       <c r="AB13" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD13" t="n">
         <v>800</v>
@@ -2083,13 +2083,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H14" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J14" t="n">
         <v>1.04</v>
@@ -2098,16 +2098,16 @@
         <v>13</v>
       </c>
       <c r="L14" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M14" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N14" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O14" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P14" t="n">
         <v>1.33</v>
@@ -2125,7 +2125,7 @@
         <v>8</v>
       </c>
       <c r="U14" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V14" t="n">
         <v>8.5</v>
@@ -2134,7 +2134,7 @@
         <v>12</v>
       </c>
       <c r="X14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y14" t="n">
         <v>23</v>
@@ -2143,7 +2143,7 @@
         <v>13</v>
       </c>
       <c r="AA14" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB14" t="n">
         <v>15</v>
@@ -2155,7 +2155,7 @@
         <v>201</v>
       </c>
       <c r="AE14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF14" t="n">
         <v>29</v>
@@ -2205,13 +2205,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="H15" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I15" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -2222,10 +2222,10 @@
         <v>3.6</v>
       </c>
       <c r="N15" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
@@ -2236,31 +2236,31 @@
         <v>1.99</v>
       </c>
       <c r="T15" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="U15" t="n">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="V15" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="W15" t="n">
-        <v>11.75</v>
+        <v>13.5</v>
       </c>
       <c r="X15" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Z15" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AB15" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AC15" t="n">
         <v>45</v>
@@ -2269,22 +2269,22 @@
         <v>300</v>
       </c>
       <c r="AE15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG15" t="n">
         <v>10.25</v>
       </c>
-      <c r="AF15" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>11</v>
-      </c>
       <c r="AH15" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>28</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="16">
@@ -2340,10 +2340,10 @@
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="n">
-        <v>2.24</v>
+        <v>2.21</v>
       </c>
       <c r="S16" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="T16" t="n">
         <v>10</v>
@@ -2432,16 +2432,16 @@
         <v>2.3</v>
       </c>
       <c r="H17" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I17" t="n">
         <v>3.25</v>
       </c>
       <c r="J17" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L17" t="n">
         <v>1.36</v>
@@ -2450,28 +2450,28 @@
         <v>3</v>
       </c>
       <c r="N17" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O17" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P17" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R17" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S17" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T17" t="n">
         <v>7</v>
       </c>
       <c r="U17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V17" t="n">
         <v>9.5</v>
@@ -2486,7 +2486,7 @@
         <v>34</v>
       </c>
       <c r="Z17" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA17" t="n">
         <v>6</v>
@@ -2498,10 +2498,10 @@
         <v>51</v>
       </c>
       <c r="AD17" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF17" t="n">
         <v>15</v>
@@ -2578,7 +2578,7 @@
         <v>2.5</v>
       </c>
       <c r="P18" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q18" t="n">
         <v>3.75</v>
@@ -2706,10 +2706,10 @@
         <v>2.95</v>
       </c>
       <c r="R19" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S19" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T19" t="n">
         <v>8.5</v>
@@ -2822,7 +2822,7 @@
         <v>1.83</v>
       </c>
       <c r="P20" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q20" t="n">
         <v>2.75</v>
@@ -3018,13 +3018,13 @@
         <v>1.78</v>
       </c>
       <c r="T22" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="U22" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="V22" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="W22" t="n">
         <v>11.25</v>
@@ -3048,10 +3048,10 @@
         <v>90</v>
       </c>
       <c r="AD22" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE22" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF22" t="n">
         <v>32</v>
@@ -3101,31 +3101,31 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H23" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I23" t="n">
         <v>3.4</v>
       </c>
       <c r="J23" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K23" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N23" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O23" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="P23" t="n">
         <v>1.44</v>
@@ -3134,34 +3134,34 @@
         <v>2.63</v>
       </c>
       <c r="R23" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S23" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T23" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U23" t="n">
         <v>10</v>
       </c>
       <c r="V23" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y23" t="n">
         <v>29</v>
       </c>
       <c r="Z23" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB23" t="n">
         <v>15</v>
@@ -3170,10 +3170,10 @@
         <v>51</v>
       </c>
       <c r="AD23" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF23" t="n">
         <v>17</v>
@@ -3182,13 +3182,13 @@
         <v>12</v>
       </c>
       <c r="AH23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI23" t="n">
         <v>29</v>
       </c>
       <c r="AJ23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-04-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-09.xlsx
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="n">
         <v>4.5</v>
@@ -659,7 +659,7 @@
         <v>1.06</v>
       </c>
       <c r="K2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L2" t="n">
         <v>1.33</v>
@@ -680,16 +680,16 @@
         <v>2.63</v>
       </c>
       <c r="R2" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V2" t="n">
         <v>8.5</v>
@@ -704,22 +704,22 @@
         <v>29</v>
       </c>
       <c r="Z2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD2" t="n">
         <v>351</v>
       </c>
       <c r="AE2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF2" t="n">
         <v>23</v>
@@ -1013,19 +1013,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H5" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J5" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L5" t="n">
         <v>1.25</v>
@@ -1034,10 +1034,10 @@
         <v>4</v>
       </c>
       <c r="N5" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O5" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
         <v>1.36</v>
@@ -1073,7 +1073,7 @@
         <v>12</v>
       </c>
       <c r="AA5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB5" t="n">
         <v>17</v>
@@ -1082,7 +1082,7 @@
         <v>51</v>
       </c>
       <c r="AD5" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE5" t="n">
         <v>13</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="H6" t="n">
-        <v>4.45</v>
+        <v>4.65</v>
       </c>
       <c r="I6" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -1154,28 +1154,28 @@
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="U6" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="V6" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="W6" t="n">
         <v>8.75</v>
       </c>
       <c r="X6" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z6" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AA6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB6" t="n">
         <v>12.5</v>
@@ -1187,7 +1187,7 @@
         <v>175</v>
       </c>
       <c r="AE6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF6" t="n">
         <v>40</v>
@@ -1196,13 +1196,13 @@
         <v>17</v>
       </c>
       <c r="AH6" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AI6" t="n">
         <v>45</v>
       </c>
       <c r="AJ6" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -1237,13 +1237,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="H7" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -1254,69 +1254,69 @@
         <v>4.2</v>
       </c>
       <c r="N7" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="O7" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="S7" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="T7" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="U7" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="V7" t="n">
         <v>7.3</v>
       </c>
-      <c r="U7" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="V7" t="n">
-        <v>7.2</v>
-      </c>
       <c r="W7" t="n">
-        <v>7.4</v>
+        <v>6.7</v>
       </c>
       <c r="X7" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Y7" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AB7" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AD7" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AE7" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AF7" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AH7" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="AI7" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AJ7" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J8" t="n">
         <v>1.04</v>
@@ -1372,10 +1372,10 @@
         <v>4.25</v>
       </c>
       <c r="N8" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O8" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P8" t="n">
         <v>1.32</v>
@@ -1393,7 +1393,7 @@
         <v>10</v>
       </c>
       <c r="U8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V8" t="n">
         <v>9</v>
@@ -1417,7 +1417,7 @@
         <v>12</v>
       </c>
       <c r="AC8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD8" t="n">
         <v>126</v>
@@ -1429,13 +1429,13 @@
         <v>21</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
         <v>41</v>
       </c>
       <c r="AI8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ8" t="n">
         <v>29</v>
@@ -1473,13 +1473,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H9" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I9" t="n">
         <v>3.8</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.7</v>
       </c>
       <c r="J9" t="n">
         <v>1.05</v>
@@ -1488,10 +1488,10 @@
         <v>8.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M9" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="N9" t="n">
         <v>1.75</v>
@@ -1500,10 +1500,10 @@
         <v>2.05</v>
       </c>
       <c r="P9" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="R9" t="n">
         <v>1.7</v>
@@ -1524,7 +1524,7 @@
         <v>15</v>
       </c>
       <c r="X9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y9" t="n">
         <v>23</v>
@@ -1539,7 +1539,7 @@
         <v>15</v>
       </c>
       <c r="AC9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD9" t="n">
         <v>201</v>
@@ -1557,7 +1557,7 @@
         <v>41</v>
       </c>
       <c r="AI9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ9" t="n">
         <v>34</v>
@@ -1598,52 +1598,52 @@
         <v>1.67</v>
       </c>
       <c r="H10" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I10" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K10" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="L10" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="M10" t="n">
-        <v>4.05</v>
+        <v>4.45</v>
       </c>
       <c r="N10" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="O10" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="P10" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="R10" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="S10" t="n">
-        <v>2.12</v>
+        <v>2.25</v>
       </c>
       <c r="T10" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="U10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V10" t="n">
         <v>8.5</v>
       </c>
       <c r="W10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X10" t="n">
         <v>13</v>
@@ -1652,37 +1652,37 @@
         <v>21</v>
       </c>
       <c r="Z10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA10" t="n">
         <v>8</v>
       </c>
       <c r="AB10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC10" t="n">
         <v>41</v>
       </c>
       <c r="AD10" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF10" t="n">
         <v>23</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH10" t="n">
         <v>41</v>
       </c>
       <c r="AI10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
@@ -1839,13 +1839,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H12" t="n">
         <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="J12" t="n">
         <v>1.07</v>
@@ -1860,16 +1860,16 @@
         <v>3.2</v>
       </c>
       <c r="N12" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P12" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.87</v>
+        <v>2.67</v>
       </c>
       <c r="R12" t="n">
         <v>1.72</v>
@@ -1887,7 +1887,7 @@
         <v>9.5</v>
       </c>
       <c r="W12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X12" t="n">
         <v>19</v>
@@ -1896,34 +1896,34 @@
         <v>29</v>
       </c>
       <c r="Z12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA12" t="n">
         <v>6.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD12" t="n">
         <v>201</v>
       </c>
       <c r="AE12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ12" t="n">
         <v>34</v>
@@ -2083,94 +2083,94 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.62</v>
+        <v>2.1</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="J14" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K14" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L14" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N14" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="P14" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="R14" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S14" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T14" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U14" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="V14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W14" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="X14" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Y14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z14" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AB14" t="n">
         <v>15</v>
       </c>
       <c r="AC14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH14" t="n">
         <v>41</v>
       </c>
-      <c r="AD14" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF14" t="n">
+      <c r="AI14" t="n">
         <v>29</v>
       </c>
-      <c r="AG14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>41</v>
-      </c>
       <c r="AJ14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
@@ -2205,47 +2205,47 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="H15" t="n">
         <v>3.35</v>
       </c>
       <c r="I15" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M15" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N15" t="n">
         <v>1.8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="S15" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="T15" t="n">
         <v>6.3</v>
       </c>
       <c r="U15" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="V15" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="W15" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="X15" t="n">
         <v>12</v>
@@ -2260,7 +2260,7 @@
         <v>5.8</v>
       </c>
       <c r="AB15" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AC15" t="n">
         <v>45</v>
@@ -2272,19 +2272,19 @@
         <v>9.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AG15" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AH15" t="n">
         <v>40</v>
       </c>
       <c r="AI15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ15" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
@@ -2438,10 +2438,10 @@
         <v>3.25</v>
       </c>
       <c r="J17" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L17" t="n">
         <v>1.36</v>
@@ -2450,10 +2450,10 @@
         <v>3</v>
       </c>
       <c r="N17" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O17" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P17" t="n">
         <v>1.5</v>
@@ -2551,19 +2551,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="H18" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I18" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="J18" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L18" t="n">
         <v>1.14</v>
@@ -2584,10 +2584,10 @@
         <v>3.75</v>
       </c>
       <c r="R18" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S18" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T18" t="n">
         <v>9</v>
@@ -2599,7 +2599,7 @@
         <v>9</v>
       </c>
       <c r="W18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X18" t="n">
         <v>11</v>
@@ -2626,7 +2626,7 @@
         <v>26</v>
       </c>
       <c r="AF18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG18" t="n">
         <v>26</v>
@@ -2795,19 +2795,19 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H20" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
         <v>1.06</v>
       </c>
       <c r="K20" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L20" t="n">
         <v>1.3</v>
@@ -2852,7 +2852,7 @@
         <v>41</v>
       </c>
       <c r="Z20" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA20" t="n">
         <v>6.5</v>
@@ -2882,7 +2882,7 @@
         <v>17</v>
       </c>
       <c r="AJ20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -2979,13 +2979,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H22" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I22" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="J22" t="n">
         <v>1.06</v>
@@ -2994,22 +2994,22 @@
         <v>7.3</v>
       </c>
       <c r="L22" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M22" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N22" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="O22" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="P22" t="n">
         <v>1.42</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="R22" t="n">
         <v>1.93</v>
@@ -3021,16 +3021,16 @@
         <v>6.4</v>
       </c>
       <c r="U22" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="V22" t="n">
         <v>8</v>
       </c>
       <c r="W22" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="X22" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y22" t="n">
         <v>28</v>
@@ -3039,10 +3039,10 @@
         <v>7.3</v>
       </c>
       <c r="AA22" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AB22" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC22" t="n">
         <v>90</v>
@@ -3051,22 +3051,22 @@
         <v>800</v>
       </c>
       <c r="AE22" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF22" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AG22" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AI22" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ22" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23">
@@ -3101,64 +3101,64 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.15</v>
+        <v>1.87</v>
       </c>
       <c r="H23" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I23" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K23" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="L23" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M23" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N23" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O23" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="P23" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R23" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S23" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="T23" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U23" t="n">
+        <v>9</v>
+      </c>
+      <c r="V23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W23" t="n">
+        <v>17</v>
+      </c>
+      <c r="X23" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z23" t="n">
         <v>10</v>
-      </c>
-      <c r="V23" t="n">
-        <v>9</v>
-      </c>
-      <c r="W23" t="n">
-        <v>19</v>
-      </c>
-      <c r="X23" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>9.5</v>
       </c>
       <c r="AA23" t="n">
         <v>6.5</v>
@@ -3173,22 +3173,22 @@
         <v>251</v>
       </c>
       <c r="AE23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF23" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH23" t="n">
         <v>41</v>
       </c>
       <c r="AI23" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-04-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-09.xlsx
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J3" t="n">
         <v>1.11</v>
@@ -790,28 +790,28 @@
         <v>2.5</v>
       </c>
       <c r="N3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="O3" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V3" t="n">
         <v>10</v>
@@ -835,7 +835,7 @@
         <v>19</v>
       </c>
       <c r="AC3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD3" t="n">
         <v>501</v>
@@ -853,7 +853,7 @@
         <v>34</v>
       </c>
       <c r="AI3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ3" t="n">
         <v>41</v>
@@ -894,16 +894,16 @@
         <v>1.62</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L4" t="n">
         <v>1.36</v>
@@ -924,10 +924,10 @@
         <v>2.63</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S4" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T4" t="n">
         <v>6</v>
@@ -945,10 +945,10 @@
         <v>15</v>
       </c>
       <c r="Y4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA4" t="n">
         <v>7.5</v>
@@ -960,7 +960,7 @@
         <v>67</v>
       </c>
       <c r="AD4" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE4" t="n">
         <v>12</v>
@@ -978,7 +978,7 @@
         <v>41</v>
       </c>
       <c r="AJ4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H5" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="J5" t="n">
         <v>1.04</v>
@@ -1040,64 +1040,64 @@
         <v>2</v>
       </c>
       <c r="P5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q5" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R5" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="S5" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="T5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U5" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="V5" t="n">
         <v>8.5</v>
       </c>
       <c r="W5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X5" t="n">
         <v>13</v>
       </c>
       <c r="Y5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC5" t="n">
         <v>51</v>
       </c>
       <c r="AD5" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AE5" t="n">
         <v>13</v>
       </c>
       <c r="AF5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH5" t="n">
         <v>51</v>
       </c>
       <c r="AI5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ5" t="n">
         <v>41</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="H6" t="n">
-        <v>4.65</v>
+        <v>4.55</v>
       </c>
       <c r="I6" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -1154,46 +1154,46 @@
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="U6" t="n">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="V6" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="W6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X6" t="n">
         <v>8.75</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Y6" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA6" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y6" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>9</v>
-      </c>
       <c r="AB6" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>200</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF6" t="n">
         <v>37</v>
       </c>
-      <c r="AD6" t="n">
-        <v>175</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>40</v>
-      </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH6" t="n">
         <v>100</v>
@@ -1202,7 +1202,7 @@
         <v>45</v>
       </c>
       <c r="AJ6" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
@@ -1262,10 +1262,10 @@
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="S7" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="T7" t="n">
         <v>6.8</v>
@@ -1351,25 +1351,25 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="J8" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K8" t="n">
-        <v>9.25</v>
+        <v>15</v>
       </c>
       <c r="L8" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M8" t="n">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="N8" t="n">
         <v>1.62</v>
@@ -1378,28 +1378,28 @@
         <v>2.25</v>
       </c>
       <c r="P8" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="R8" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="S8" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="T8" t="n">
         <v>10</v>
       </c>
       <c r="U8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V8" t="n">
         <v>9</v>
       </c>
       <c r="W8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X8" t="n">
         <v>15</v>
@@ -1414,31 +1414,31 @@
         <v>7</v>
       </c>
       <c r="AB8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD8" t="n">
         <v>126</v>
       </c>
       <c r="AE8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>26</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="9">
@@ -1473,67 +1473,67 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="H9" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K9" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="L9" t="n">
         <v>1.25</v>
       </c>
       <c r="M9" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="N9" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="O9" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="P9" t="n">
         <v>1.36</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="R9" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S9" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T9" t="n">
         <v>8</v>
       </c>
       <c r="U9" t="n">
+        <v>11</v>
+      </c>
+      <c r="V9" t="n">
         <v>9</v>
       </c>
-      <c r="V9" t="n">
-        <v>8.5</v>
-      </c>
       <c r="W9" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="X9" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Y9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB9" t="n">
         <v>15</v>
@@ -1545,22 +1545,22 @@
         <v>201</v>
       </c>
       <c r="AE9" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF9" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI9" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AJ9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
@@ -1598,43 +1598,43 @@
         <v>1.67</v>
       </c>
       <c r="H10" t="n">
+        <v>4</v>
+      </c>
+      <c r="I10" t="n">
         <v>3.9</v>
       </c>
-      <c r="I10" t="n">
-        <v>4</v>
-      </c>
       <c r="J10" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K10" t="n">
-        <v>9.75</v>
+        <v>19</v>
       </c>
       <c r="L10" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="M10" t="n">
-        <v>4.45</v>
+        <v>5.5</v>
       </c>
       <c r="N10" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="O10" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="P10" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="R10" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S10" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U10" t="n">
         <v>10</v>
@@ -1646,16 +1646,16 @@
         <v>15</v>
       </c>
       <c r="X10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB10" t="n">
         <v>13</v>
@@ -1670,10 +1670,10 @@
         <v>17</v>
       </c>
       <c r="AF10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH10" t="n">
         <v>41</v>
@@ -1726,16 +1726,16 @@
         <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K11" t="n">
-        <v>8.75</v>
+        <v>13</v>
       </c>
       <c r="L11" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="M11" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N11" t="n">
         <v>1.73</v>
@@ -1744,22 +1744,22 @@
         <v>2.08</v>
       </c>
       <c r="P11" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q11" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R11" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S11" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T11" t="n">
         <v>8.5</v>
       </c>
       <c r="U11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V11" t="n">
         <v>8.5</v>
@@ -1848,16 +1848,16 @@
         <v>3.1</v>
       </c>
       <c r="J12" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K12" t="n">
-        <v>7.4</v>
+        <v>10</v>
       </c>
       <c r="L12" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="M12" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N12" t="n">
         <v>2</v>
@@ -1866,13 +1866,13 @@
         <v>1.85</v>
       </c>
       <c r="P12" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="R12" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="S12" t="n">
         <v>2</v>
@@ -1884,16 +1884,16 @@
         <v>11</v>
       </c>
       <c r="V12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W12" t="n">
         <v>21</v>
       </c>
       <c r="X12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z12" t="n">
         <v>10</v>
@@ -1964,7 +1964,7 @@
         <v>2.22</v>
       </c>
       <c r="H13" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I13" t="n">
         <v>3.05</v>
@@ -1994,19 +1994,19 @@
         <v>2.42</v>
       </c>
       <c r="R13" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="S13" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="T13" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="U13" t="n">
         <v>10.25</v>
       </c>
       <c r="V13" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="W13" t="n">
         <v>22</v>
@@ -2015,13 +2015,13 @@
         <v>19.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z13" t="n">
         <v>6.4</v>
       </c>
       <c r="AA13" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AB13" t="n">
         <v>15.5</v>
@@ -2030,7 +2030,7 @@
         <v>80</v>
       </c>
       <c r="AD13" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AE13" t="n">
         <v>8.25</v>
@@ -2045,7 +2045,7 @@
         <v>40</v>
       </c>
       <c r="AI13" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ13" t="n">
         <v>40</v>
@@ -2083,10 +2083,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I14" t="n">
         <v>3.5</v>
@@ -2095,25 +2095,25 @@
         <v>1.06</v>
       </c>
       <c r="K14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M14" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O14" t="n">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="P14" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R14" t="n">
         <v>1.8</v>
@@ -2137,10 +2137,10 @@
         <v>17</v>
       </c>
       <c r="Y14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA14" t="n">
         <v>6.5</v>
@@ -2230,10 +2230,10 @@
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="S15" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="T15" t="n">
         <v>6.3</v>
@@ -2456,7 +2456,7 @@
         <v>1.67</v>
       </c>
       <c r="P17" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q17" t="n">
         <v>2.5</v>
@@ -2572,13 +2572,13 @@
         <v>5.5</v>
       </c>
       <c r="N18" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="O18" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="P18" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q18" t="n">
         <v>3.75</v>
@@ -2807,7 +2807,7 @@
         <v>1.06</v>
       </c>
       <c r="K20" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>1.3</v>
@@ -2822,7 +2822,7 @@
         <v>1.83</v>
       </c>
       <c r="P20" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q20" t="n">
         <v>2.75</v>
@@ -2979,94 +2979,94 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="H22" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="I22" t="n">
-        <v>5.8</v>
+        <v>6.7</v>
       </c>
       <c r="J22" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K22" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="L22" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="M22" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N22" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="O22" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="P22" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="R22" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S22" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="T22" t="n">
         <v>6.4</v>
       </c>
       <c r="U22" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V22" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X22" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AA22" t="n">
         <v>8</v>
       </c>
-      <c r="W22" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="X22" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>7.4</v>
-      </c>
       <c r="AB22" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD22" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE22" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AF22" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AG22" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AH22" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AI22" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AJ22" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23">
@@ -3101,91 +3101,91 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="H23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="J23" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L23" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="M23" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N23" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O23" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="P23" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R23" t="n">
-        <v>1.77</v>
+        <v>1.91</v>
       </c>
       <c r="S23" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="T23" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V23" t="n">
         <v>8.5</v>
       </c>
       <c r="W23" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="X23" t="n">
         <v>15</v>
       </c>
       <c r="Y23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z23" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC23" t="n">
         <v>51</v>
       </c>
       <c r="AD23" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AE23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI23" t="n">
         <v>41</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>34</v>
       </c>
       <c r="AJ23" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-09.xlsx
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
         <v>1.11</v>
@@ -790,22 +790,22 @@
         <v>2.5</v>
       </c>
       <c r="N3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T3" t="n">
         <v>6</v>
@@ -835,7 +835,7 @@
         <v>19</v>
       </c>
       <c r="AC3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD3" t="n">
         <v>501</v>
@@ -853,7 +853,7 @@
         <v>34</v>
       </c>
       <c r="AI3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ3" t="n">
         <v>41</v>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I5" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J5" t="n">
         <v>1.04</v>
@@ -1028,16 +1028,16 @@
         <v>13</v>
       </c>
       <c r="L5" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N5" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="P5" t="n">
         <v>1.33</v>
@@ -1073,7 +1073,7 @@
         <v>13</v>
       </c>
       <c r="AA5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB5" t="n">
         <v>15</v>
@@ -1088,7 +1088,7 @@
         <v>13</v>
       </c>
       <c r="AF5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG5" t="n">
         <v>15</v>
@@ -1237,86 +1237,86 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="H7" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="I7" t="n">
-        <v>10</v>
+        <v>8.75</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M7" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="N7" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="O7" t="n">
-        <v>2.44</v>
+        <v>2.18</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="S7" t="n">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="T7" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="U7" t="n">
         <v>5.7</v>
       </c>
       <c r="V7" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="W7" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="X7" t="n">
         <v>8.75</v>
       </c>
       <c r="Y7" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>70</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>450</v>
+      </c>
+      <c r="AE7" t="n">
         <v>19.5</v>
       </c>
-      <c r="Z7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>350</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>25</v>
-      </c>
       <c r="AF7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>200</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>65</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>250</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -1476,43 +1476,43 @@
         <v>2.05</v>
       </c>
       <c r="H9" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J9" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M9" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N9" t="n">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="O9" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="P9" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q9" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R9" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U9" t="n">
         <v>11</v>
@@ -1527,25 +1527,25 @@
         <v>17</v>
       </c>
       <c r="Y9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD9" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF9" t="n">
         <v>17</v>
@@ -1595,13 +1595,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I10" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J10" t="n">
         <v>1.02</v>
@@ -1628,16 +1628,16 @@
         <v>3.75</v>
       </c>
       <c r="R10" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S10" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T10" t="n">
         <v>11</v>
       </c>
       <c r="U10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V10" t="n">
         <v>8.5</v>
@@ -1646,7 +1646,7 @@
         <v>15</v>
       </c>
       <c r="X10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y10" t="n">
         <v>19</v>
@@ -1661,25 +1661,25 @@
         <v>13</v>
       </c>
       <c r="AC10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD10" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE10" t="n">
         <v>17</v>
       </c>
       <c r="AF10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH10" t="n">
         <v>41</v>
       </c>
       <c r="AI10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ10" t="n">
         <v>29</v>
@@ -1723,7 +1723,7 @@
         <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J11" t="n">
         <v>1.04</v>
@@ -1759,7 +1759,7 @@
         <v>8.5</v>
       </c>
       <c r="U11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V11" t="n">
         <v>8.5</v>
@@ -1789,19 +1789,19 @@
         <v>151</v>
       </c>
       <c r="AE11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
         <v>41</v>
       </c>
       <c r="AI11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ11" t="n">
         <v>34</v>
@@ -1839,19 +1839,19 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I12" t="n">
         <v>3.1</v>
       </c>
       <c r="J12" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L12" t="n">
         <v>1.29</v>
@@ -1860,10 +1860,10 @@
         <v>3.5</v>
       </c>
       <c r="N12" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="O12" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="P12" t="n">
         <v>1.4</v>
@@ -1878,7 +1878,7 @@
         <v>2</v>
       </c>
       <c r="T12" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U12" t="n">
         <v>11</v>
@@ -1896,7 +1896,7 @@
         <v>26</v>
       </c>
       <c r="Z12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA12" t="n">
         <v>6.5</v>
@@ -1911,7 +1911,7 @@
         <v>201</v>
       </c>
       <c r="AE12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF12" t="n">
         <v>17</v>
@@ -1961,13 +1961,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H13" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I13" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="J13" t="n">
         <v>1.08</v>
@@ -2012,7 +2012,7 @@
         <v>22</v>
       </c>
       <c r="X13" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y13" t="n">
         <v>32</v>
@@ -2021,10 +2021,10 @@
         <v>6.4</v>
       </c>
       <c r="AA13" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AB13" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC13" t="n">
         <v>80</v>
@@ -2033,19 +2033,19 @@
         <v>700</v>
       </c>
       <c r="AE13" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG13" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI13" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ13" t="n">
         <v>40</v>
@@ -2205,13 +2205,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="H15" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="I15" t="n">
-        <v>3.7</v>
+        <v>4.45</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -2222,69 +2222,69 @@
         <v>3.5</v>
       </c>
       <c r="N15" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O15" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="S15" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="T15" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="U15" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="V15" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="W15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="X15" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB15" t="n">
         <v>12</v>
       </c>
-      <c r="Y15" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AC15" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AD15" t="n">
         <v>300</v>
       </c>
       <c r="AE15" t="n">
-        <v>9.5</v>
+        <v>10.75</v>
       </c>
       <c r="AF15" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG15" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AH15" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AI15" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AJ15" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -2319,13 +2319,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="H16" t="n">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="I16" t="n">
-        <v>26</v>
+        <v>15.5</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -2335,21 +2335,21 @@
         <v>1.26</v>
       </c>
       <c r="O16" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="n">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="S16" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="T16" t="n">
         <v>10</v>
       </c>
       <c r="U16" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="V16" t="n">
         <v>10.5</v>
@@ -2358,19 +2358,19 @@
         <v>5.7</v>
       </c>
       <c r="X16" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA16" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC16" t="n">
         <v>120</v>
@@ -2379,22 +2379,22 @@
         <v>600</v>
       </c>
       <c r="AE16" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="AF16" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="AG16" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AH16" t="n">
-        <v>101</v>
+        <v>600</v>
       </c>
       <c r="AI16" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="AJ16" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17">
@@ -2429,19 +2429,19 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H17" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J17" t="n">
         <v>1.07</v>
       </c>
       <c r="K17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L17" t="n">
         <v>1.36</v>
@@ -2456,16 +2456,16 @@
         <v>1.67</v>
       </c>
       <c r="P17" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R17" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S17" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T17" t="n">
         <v>7</v>
@@ -2480,13 +2480,13 @@
         <v>21</v>
       </c>
       <c r="X17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z17" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA17" t="n">
         <v>6</v>
@@ -2498,10 +2498,10 @@
         <v>51</v>
       </c>
       <c r="AD17" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF17" t="n">
         <v>15</v>
@@ -2551,19 +2551,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="H18" t="n">
         <v>5</v>
       </c>
       <c r="I18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="J18" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L18" t="n">
         <v>1.14</v>
@@ -2572,13 +2572,13 @@
         <v>5.5</v>
       </c>
       <c r="N18" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="O18" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="P18" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q18" t="n">
         <v>3.75</v>
@@ -2620,7 +2620,7 @@
         <v>51</v>
       </c>
       <c r="AD18" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE18" t="n">
         <v>26</v>
@@ -2804,10 +2804,10 @@
         <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L20" t="n">
         <v>1.3</v>
@@ -2816,16 +2816,16 @@
         <v>3.4</v>
       </c>
       <c r="N20" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O20" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P20" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R20" t="n">
         <v>1.8</v>
@@ -2852,7 +2852,7 @@
         <v>41</v>
       </c>
       <c r="Z20" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA20" t="n">
         <v>6.5</v>
@@ -2982,46 +2982,46 @@
         <v>1.45</v>
       </c>
       <c r="H22" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="I22" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="J22" t="n">
         <v>1.05</v>
       </c>
       <c r="K22" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="L22" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M22" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="N22" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="O22" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P22" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="R22" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S22" t="n">
         <v>1.75</v>
       </c>
       <c r="T22" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="U22" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="V22" t="n">
         <v>8.25</v>
@@ -3030,16 +3030,16 @@
         <v>9.5</v>
       </c>
       <c r="X22" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="Y22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z22" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AA22" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AB22" t="n">
         <v>19.5</v>
@@ -3048,7 +3048,7 @@
         <v>100</v>
       </c>
       <c r="AD22" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AE22" t="n">
         <v>16</v>
@@ -3063,7 +3063,7 @@
         <v>150</v>
       </c>
       <c r="AI22" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ22" t="n">
         <v>75</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-09.xlsx
@@ -784,10 +784,10 @@
         <v>6.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N3" t="n">
         <v>2.63</v>
@@ -808,10 +808,10 @@
         <v>1.67</v>
       </c>
       <c r="T3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V3" t="n">
         <v>10</v>
@@ -1013,10 +1013,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H5" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I5" t="n">
         <v>4.75</v>
@@ -1055,13 +1055,13 @@
         <v>8</v>
       </c>
       <c r="U5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V5" t="n">
         <v>8.5</v>
       </c>
       <c r="W5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X5" t="n">
         <v>13</v>
@@ -1076,7 +1076,7 @@
         <v>8</v>
       </c>
       <c r="AB5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC5" t="n">
         <v>51</v>
@@ -1085,7 +1085,7 @@
         <v>201</v>
       </c>
       <c r="AE5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
         <v>26</v>
@@ -1097,7 +1097,7 @@
         <v>51</v>
       </c>
       <c r="AI5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ5" t="n">
         <v>41</v>
@@ -1135,10 +1135,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="H6" t="n">
-        <v>4.55</v>
+        <v>4.3</v>
       </c>
       <c r="I6" t="n">
         <v>6.2</v>
@@ -1154,31 +1154,31 @@
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="U6" t="n">
         <v>7.1</v>
       </c>
       <c r="V6" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="W6" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="X6" t="n">
         <v>8.75</v>
       </c>
       <c r="Y6" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="AB6" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC6" t="n">
         <v>40</v>
@@ -1187,13 +1187,13 @@
         <v>200</v>
       </c>
       <c r="AE6" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="n">
         <v>37</v>
       </c>
       <c r="AG6" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH6" t="n">
         <v>100</v>
@@ -1240,10 +1240,10 @@
         <v>1.28</v>
       </c>
       <c r="H7" t="n">
-        <v>4.6</v>
+        <v>4.45</v>
       </c>
       <c r="I7" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -1251,13 +1251,13 @@
         <v>1.17</v>
       </c>
       <c r="M7" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="N7" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="O7" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
@@ -1268,16 +1268,16 @@
         <v>1.77</v>
       </c>
       <c r="T7" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="U7" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="V7" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="W7" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X7" t="n">
         <v>8.75</v>
@@ -1292,22 +1292,22 @@
         <v>8.25</v>
       </c>
       <c r="AB7" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AD7" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="AE7" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AF7" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH7" t="n">
         <v>200</v>
@@ -1316,7 +1316,7 @@
         <v>80</v>
       </c>
       <c r="AJ7" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -1473,13 +1473,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H9" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J9" t="n">
         <v>1.03</v>
@@ -1494,10 +1494,10 @@
         <v>4</v>
       </c>
       <c r="N9" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O9" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P9" t="n">
         <v>1.33</v>
@@ -1506,22 +1506,22 @@
         <v>3.25</v>
       </c>
       <c r="R9" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S9" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V9" t="n">
         <v>9</v>
       </c>
       <c r="W9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X9" t="n">
         <v>17</v>
@@ -1554,13 +1554,13 @@
         <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
@@ -1595,13 +1595,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H10" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J10" t="n">
         <v>1.02</v>
@@ -1616,10 +1616,10 @@
         <v>5.5</v>
       </c>
       <c r="N10" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="O10" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="P10" t="n">
         <v>1.25</v>
@@ -1646,7 +1646,7 @@
         <v>15</v>
       </c>
       <c r="X10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y10" t="n">
         <v>19</v>
@@ -1679,7 +1679,7 @@
         <v>41</v>
       </c>
       <c r="AI10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ10" t="n">
         <v>29</v>
@@ -1723,7 +1723,7 @@
         <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
         <v>1.04</v>
@@ -1732,16 +1732,16 @@
         <v>13</v>
       </c>
       <c r="L11" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N11" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O11" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P11" t="n">
         <v>1.33</v>
@@ -1789,19 +1789,19 @@
         <v>151</v>
       </c>
       <c r="AE11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH11" t="n">
         <v>41</v>
       </c>
       <c r="AI11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ11" t="n">
         <v>34</v>
@@ -1839,13 +1839,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H12" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I12" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J12" t="n">
         <v>1.05</v>
@@ -1854,28 +1854,28 @@
         <v>11</v>
       </c>
       <c r="L12" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M12" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N12" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="O12" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="P12" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R12" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S12" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T12" t="n">
         <v>8.5</v>
@@ -1887,7 +1887,7 @@
         <v>9</v>
       </c>
       <c r="W12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X12" t="n">
         <v>17</v>
@@ -1964,79 +1964,79 @@
         <v>2.2</v>
       </c>
       <c r="H13" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="I13" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="J13" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="K13" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T13" t="n">
         <v>6.4</v>
       </c>
-      <c r="L13" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M13" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="N13" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T13" t="n">
-        <v>6.9</v>
-      </c>
       <c r="U13" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="V13" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="W13" t="n">
         <v>22</v>
       </c>
       <c r="X13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y13" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z13" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="AA13" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AD13" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE13" t="n">
         <v>8.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG13" t="n">
         <v>11.5</v>
@@ -2048,7 +2048,7 @@
         <v>32</v>
       </c>
       <c r="AJ13" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
@@ -2205,13 +2205,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="H15" t="n">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="I15" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -2219,66 +2219,66 @@
         <v>1.26</v>
       </c>
       <c r="M15" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="N15" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="S15" t="n">
         <v>1.96</v>
       </c>
       <c r="T15" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="U15" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V15" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="W15" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="X15" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB15" t="n">
         <v>10.75</v>
       </c>
-      <c r="Y15" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z15" t="n">
+      <c r="AC15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>250</v>
+      </c>
+      <c r="AE15" t="n">
         <v>10.5</v>
       </c>
-      <c r="AA15" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>50</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>300</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>10.75</v>
-      </c>
       <c r="AF15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI15" t="n">
         <v>32</v>
@@ -2319,13 +2319,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="H16" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="I16" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -2335,66 +2335,66 @@
         <v>1.26</v>
       </c>
       <c r="O16" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="n">
-        <v>2.15</v>
+        <v>2.27</v>
       </c>
       <c r="S16" t="n">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="T16" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="U16" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="V16" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="W16" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="X16" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="Y16" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Z16" t="n">
         <v>23</v>
       </c>
       <c r="AA16" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AB16" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AC16" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AD16" t="n">
         <v>600</v>
       </c>
       <c r="AE16" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AF16" t="n">
         <v>150</v>
       </c>
       <c r="AG16" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH16" t="n">
         <v>600</v>
       </c>
       <c r="AI16" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AJ16" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
@@ -2429,19 +2429,19 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H17" t="n">
         <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J17" t="n">
         <v>1.07</v>
       </c>
       <c r="K17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L17" t="n">
         <v>1.36</v>
@@ -2450,10 +2450,10 @@
         <v>3</v>
       </c>
       <c r="N17" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P17" t="n">
         <v>1.44</v>
@@ -2468,10 +2468,10 @@
         <v>1.91</v>
       </c>
       <c r="T17" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V17" t="n">
         <v>9.5</v>
@@ -2513,10 +2513,10 @@
         <v>34</v>
       </c>
       <c r="AI17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
@@ -2551,10 +2551,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="H18" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I18" t="n">
         <v>9</v>
@@ -2584,10 +2584,10 @@
         <v>3.75</v>
       </c>
       <c r="R18" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S18" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T18" t="n">
         <v>9</v>
@@ -2599,7 +2599,7 @@
         <v>9</v>
       </c>
       <c r="W18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X18" t="n">
         <v>11</v>
@@ -2611,7 +2611,7 @@
         <v>17</v>
       </c>
       <c r="AA18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB18" t="n">
         <v>19</v>
@@ -2620,13 +2620,13 @@
         <v>51</v>
       </c>
       <c r="AD18" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE18" t="n">
         <v>26</v>
       </c>
       <c r="AF18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG18" t="n">
         <v>26</v>
@@ -2673,55 +2673,55 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H19" t="n">
         <v>3.7</v>
       </c>
       <c r="I19" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J19" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K19" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="L19" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="M19" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N19" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="O19" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="P19" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="R19" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S19" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T19" t="n">
+        <v>8</v>
+      </c>
+      <c r="U19" t="n">
         <v>8.5</v>
-      </c>
-      <c r="U19" t="n">
-        <v>9</v>
       </c>
       <c r="V19" t="n">
         <v>8.5</v>
       </c>
       <c r="W19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X19" t="n">
         <v>13</v>
@@ -2730,7 +2730,7 @@
         <v>23</v>
       </c>
       <c r="Z19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA19" t="n">
         <v>7.5</v>
@@ -2739,13 +2739,13 @@
         <v>15</v>
       </c>
       <c r="AC19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD19" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF19" t="n">
         <v>23</v>
@@ -2760,7 +2760,7 @@
         <v>34</v>
       </c>
       <c r="AJ19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
@@ -2804,10 +2804,10 @@
         <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>1.3</v>
@@ -2816,10 +2816,10 @@
         <v>3.4</v>
       </c>
       <c r="N20" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O20" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P20" t="n">
         <v>1.44</v>
@@ -2979,49 +2979,49 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H22" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="I22" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="J22" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K22" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="M22" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="N22" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="O22" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="P22" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="R22" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S22" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T22" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="U22" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="V22" t="n">
         <v>8.25</v>
@@ -3030,43 +3030,43 @@
         <v>9.5</v>
       </c>
       <c r="X22" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="Y22" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z22" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AB22" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC22" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD22" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE22" t="n">
         <v>16</v>
       </c>
       <c r="AF22" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH22" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AI22" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AJ22" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23">

--- a/Jogos_da_Semana_FlashScore_2025-04-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-09.xlsx
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J3" t="n">
         <v>1.11</v>
@@ -784,43 +784,43 @@
         <v>6.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="O3" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U3" t="n">
         <v>11</v>
       </c>
       <c r="V3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y3" t="n">
         <v>41</v>
@@ -835,7 +835,7 @@
         <v>19</v>
       </c>
       <c r="AC3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD3" t="n">
         <v>501</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="H4" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I4" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="J4" t="n">
         <v>1.07</v>
@@ -933,13 +933,13 @@
         <v>6</v>
       </c>
       <c r="U4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V4" t="n">
         <v>8.5</v>
       </c>
       <c r="W4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X4" t="n">
         <v>15</v>
@@ -951,25 +951,25 @@
         <v>9</v>
       </c>
       <c r="AA4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC4" t="n">
         <v>67</v>
       </c>
       <c r="AD4" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AE4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH4" t="n">
         <v>51</v>
@@ -978,7 +978,7 @@
         <v>41</v>
       </c>
       <c r="AJ4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H5" t="n">
         <v>4.2</v>
       </c>
       <c r="I5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
         <v>1.04</v>
@@ -1064,7 +1064,7 @@
         <v>12</v>
       </c>
       <c r="X5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y5" t="n">
         <v>23</v>
@@ -1088,7 +1088,7 @@
         <v>15</v>
       </c>
       <c r="AF5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG5" t="n">
         <v>15</v>
@@ -1372,10 +1372,10 @@
         <v>4.5</v>
       </c>
       <c r="N8" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P8" t="n">
         <v>1.3</v>
@@ -1384,10 +1384,10 @@
         <v>3.4</v>
       </c>
       <c r="R8" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S8" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="T8" t="n">
         <v>10</v>
@@ -1414,7 +1414,7 @@
         <v>7</v>
       </c>
       <c r="AB8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC8" t="n">
         <v>34</v>
@@ -1506,7 +1506,7 @@
         <v>3.25</v>
       </c>
       <c r="R9" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S9" t="n">
         <v>2.2</v>
@@ -1628,7 +1628,7 @@
         <v>3.75</v>
       </c>
       <c r="R10" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S10" t="n">
         <v>2.5</v>
@@ -1717,13 +1717,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J11" t="n">
         <v>1.04</v>
@@ -1732,10 +1732,10 @@
         <v>13</v>
       </c>
       <c r="L11" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M11" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N11" t="n">
         <v>1.7</v>
@@ -1750,7 +1750,7 @@
         <v>3.25</v>
       </c>
       <c r="R11" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S11" t="n">
         <v>2.1</v>
@@ -1759,7 +1759,7 @@
         <v>8.5</v>
       </c>
       <c r="U11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V11" t="n">
         <v>8.5</v>
@@ -1777,7 +1777,7 @@
         <v>13</v>
       </c>
       <c r="AA11" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB11" t="n">
         <v>13</v>
@@ -1798,7 +1798,7 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI11" t="n">
         <v>34</v>
@@ -1872,7 +1872,7 @@
         <v>3</v>
       </c>
       <c r="R12" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S12" t="n">
         <v>2.1</v>
@@ -2429,31 +2429,31 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H17" t="n">
         <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J17" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L17" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N17" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O17" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="P17" t="n">
         <v>1.44</v>
@@ -2462,10 +2462,10 @@
         <v>2.63</v>
       </c>
       <c r="R17" t="n">
-        <v>1.91</v>
+        <v>1.77</v>
       </c>
       <c r="S17" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="T17" t="n">
         <v>7.5</v>
@@ -2480,7 +2480,7 @@
         <v>21</v>
       </c>
       <c r="X17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y17" t="n">
         <v>29</v>
@@ -2673,25 +2673,25 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H19" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J19" t="n">
         <v>1.05</v>
       </c>
       <c r="K19" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="L19" t="n">
         <v>1.25</v>
       </c>
       <c r="M19" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="N19" t="n">
         <v>1.8</v>
@@ -2700,16 +2700,16 @@
         <v>2</v>
       </c>
       <c r="P19" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="R19" t="n">
         <v>1.72</v>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T19" t="n">
         <v>8</v>
@@ -2733,13 +2733,13 @@
         <v>12</v>
       </c>
       <c r="AA19" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB19" t="n">
         <v>15</v>
       </c>
       <c r="AC19" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD19" t="n">
         <v>201</v>
@@ -2795,13 +2795,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H20" t="n">
         <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J20" t="n">
         <v>1.06</v>
@@ -2816,16 +2816,16 @@
         <v>3.4</v>
       </c>
       <c r="N20" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O20" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P20" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R20" t="n">
         <v>1.8</v>
@@ -2849,10 +2849,10 @@
         <v>29</v>
       </c>
       <c r="Y20" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA20" t="n">
         <v>6.5</v>
@@ -2870,13 +2870,13 @@
         <v>7.5</v>
       </c>
       <c r="AF20" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG20" t="n">
         <v>9</v>
       </c>
       <c r="AH20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI20" t="n">
         <v>17</v>
